--- a/Time plans/week 2.xlsx
+++ b/Time plans/week 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\FM\Time plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuart\Documents\GitHub\FM\Time plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +118,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -364,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -384,21 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,9 +395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -477,20 +453,32 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +763,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,311 +837,311 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="30"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="30"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="24"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="33"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="34"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="24"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="47"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="30"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="24"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="42"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P16" s="7"/>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
     </row>
     <row r="17" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P17" s="6"/>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="12"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="16:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P18" s="14"/>
-      <c r="Q18" s="13" t="s">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
